--- a/Assignments/Assignment4/HW4_results.xlsx
+++ b/Assignments/Assignment4/HW4_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmohler\NeuralNets\gitCode\Assignments\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DRM_NeuralNets\Neural_Networks\Assignments\Assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Network </t>
   </si>
@@ -71,14 +71,23 @@
     <t>Cross Validation Accuracy (%)</t>
   </si>
   <si>
-    <t>6,12,6</t>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>18,24,18</t>
+  </si>
+  <si>
+    <t>100,75,50,25,10,5,2</t>
+  </si>
+  <si>
+    <t>Adagrad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +99,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,9 +132,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,13 +426,13 @@
   <dimension ref="C2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -416,90 +441,144 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>36</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>5000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>77.77</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>66.67</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>5000</v>
+      <c r="I4" s="1">
+        <v>83.33</v>
+      </c>
+      <c r="J4" s="1">
+        <v>72.22</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3">
+        <v>83.33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>83.33</v>
+      </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignments/Assignment4/HW4_results.xlsx
+++ b/Assignments/Assignment4/HW4_results.xlsx
@@ -71,9 +71,6 @@
     <t>Cross Validation Accuracy (%)</t>
   </si>
   <si>
-    <t>Momentum</t>
-  </si>
-  <si>
     <t>18,24,18</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Adagrad</t>
+  </si>
+  <si>
+    <t>AdaDelta</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="C2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>10000</v>
@@ -509,7 +509,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1">
         <v>83.33</v>
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3">
         <v>10000</v>
@@ -535,7 +535,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3">
         <v>83.33</v>

--- a/Assignments/Assignment4/HW4_results.xlsx
+++ b/Assignments/Assignment4/HW4_results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DRM_NeuralNets\Neural_Networks\Assignments\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student Files\NeuralNetworks\Neural_Networks\Assignments\Assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F083DBD3-3935-4569-9465-19BFFDFA796F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t xml:space="preserve">Network </t>
   </si>
@@ -62,9 +63,6 @@
     <t>Learning Rate</t>
   </si>
   <si>
-    <t>Gradient Descent</t>
-  </si>
-  <si>
     <t>Validation Accuracy (%)</t>
   </si>
   <si>
@@ -81,13 +79,46 @@
   </si>
   <si>
     <t>AdaDelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1 </t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CROSS</t>
+  </si>
+  <si>
+    <t>SAME</t>
+  </si>
+  <si>
+    <t>avg over 10 trials</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>10,15,20,15,10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +138,19 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +185,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,51 +472,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,19 +535,19 @@
         <v>5000</v>
       </c>
       <c r="G3" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1">
-        <v>77.77</v>
-      </c>
-      <c r="J3" s="1">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+        <v>78.89</v>
+      </c>
+      <c r="J3" s="5">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>10000</v>
@@ -509,70 +564,100 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1">
-        <v>83.33</v>
-      </c>
-      <c r="J4" s="1">
-        <v>72.22</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3">
+        <v>79.44</v>
+      </c>
+      <c r="J4" s="5">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3">
-        <v>83.33</v>
+      <c r="I5" s="5">
+        <v>71.11</v>
       </c>
       <c r="J5" s="3">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+        <v>74.989999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1">
+        <v>83.33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1">
+        <v>83.33</v>
+      </c>
+      <c r="J7" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -580,6 +665,446 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>83.33</v>
+      </c>
+      <c r="D11">
+        <v>72.22</v>
+      </c>
+      <c r="E11">
+        <v>66.67</v>
+      </c>
+      <c r="F11">
+        <v>83.33</v>
+      </c>
+      <c r="G11">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>77.78</v>
+      </c>
+      <c r="D12">
+        <v>77.78</v>
+      </c>
+      <c r="E12">
+        <v>72.22</v>
+      </c>
+      <c r="F12">
+        <v>83.33</v>
+      </c>
+      <c r="G12">
+        <v>77.77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>77.78</v>
+      </c>
+      <c r="D13">
+        <v>77.78</v>
+      </c>
+      <c r="E13">
+        <v>66.67</v>
+      </c>
+      <c r="F13">
+        <v>83.33</v>
+      </c>
+      <c r="G13">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>77.78</v>
+      </c>
+      <c r="D14">
+        <v>77.78</v>
+      </c>
+      <c r="E14">
+        <v>77.78</v>
+      </c>
+      <c r="F14">
+        <v>83.33</v>
+      </c>
+      <c r="G14">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>77.78</v>
+      </c>
+      <c r="D15">
+        <v>83.33</v>
+      </c>
+      <c r="E15">
+        <v>77.78</v>
+      </c>
+      <c r="F15">
+        <v>77.77</v>
+      </c>
+      <c r="G15">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>77.78</v>
+      </c>
+      <c r="D16">
+        <v>77.78</v>
+      </c>
+      <c r="E16">
+        <v>66.67</v>
+      </c>
+      <c r="F16">
+        <v>88.89</v>
+      </c>
+      <c r="G16">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>77.78</v>
+      </c>
+      <c r="D17">
+        <v>83.33</v>
+      </c>
+      <c r="E17">
+        <v>72.22</v>
+      </c>
+      <c r="F17">
+        <v>83.33</v>
+      </c>
+      <c r="G17">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>77.78</v>
+      </c>
+      <c r="D18">
+        <v>83.33</v>
+      </c>
+      <c r="E18">
+        <v>66.67</v>
+      </c>
+      <c r="F18">
+        <v>83.33</v>
+      </c>
+      <c r="G18">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>77.78</v>
+      </c>
+      <c r="D19">
+        <v>77.78</v>
+      </c>
+      <c r="E19">
+        <v>72.22</v>
+      </c>
+      <c r="F19">
+        <v>83.33</v>
+      </c>
+      <c r="G19">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>83.33</v>
+      </c>
+      <c r="D20">
+        <v>83.33</v>
+      </c>
+      <c r="E20">
+        <v>72.22</v>
+      </c>
+      <c r="F20">
+        <v>83.33</v>
+      </c>
+      <c r="G20">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f>AVERAGE(C11:C20)</f>
+        <v>78.89</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:H21" si="0">AVERAGE(D11:D20)</f>
+        <v>79.444000000000003</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>71.111999999999995</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>83.330000000000013</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>83.331000000000003</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>66.67</v>
+      </c>
+      <c r="D26">
+        <v>66.67</v>
+      </c>
+      <c r="E26">
+        <v>83.33</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>66.67</v>
+      </c>
+      <c r="D27">
+        <v>66.67</v>
+      </c>
+      <c r="E27">
+        <v>77.77</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>66.67</v>
+      </c>
+      <c r="D28">
+        <v>61.11</v>
+      </c>
+      <c r="E28">
+        <v>83.33</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>66.67</v>
+      </c>
+      <c r="D29">
+        <v>72.22</v>
+      </c>
+      <c r="E29">
+        <v>72.22</v>
+      </c>
+      <c r="F29">
+        <v>66.67</v>
+      </c>
+      <c r="G29">
+        <v>77.77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>72.22</v>
+      </c>
+      <c r="D30">
+        <v>72.22</v>
+      </c>
+      <c r="E30">
+        <v>66.67</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>72.22</v>
+      </c>
+      <c r="D31">
+        <v>66.67</v>
+      </c>
+      <c r="E31">
+        <v>66.67</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>72.22</v>
+      </c>
+      <c r="D32">
+        <v>72.22</v>
+      </c>
+      <c r="E32">
+        <v>72.22</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>72.22</v>
+      </c>
+      <c r="D33">
+        <v>66.67</v>
+      </c>
+      <c r="E33">
+        <v>77.77</v>
+      </c>
+      <c r="F33">
+        <v>61.11</v>
+      </c>
+      <c r="G33">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>66.67</v>
+      </c>
+      <c r="D34">
+        <v>72.22</v>
+      </c>
+      <c r="E34">
+        <v>72.22</v>
+      </c>
+      <c r="F34">
+        <v>66.67</v>
+      </c>
+      <c r="G34">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>61.11</v>
+      </c>
+      <c r="D35">
+        <v>66.67</v>
+      </c>
+      <c r="E35">
+        <v>77.77</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f>AVERAGE(C26:C35)</f>
+        <v>68.334000000000003</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGE(D26:D35)</f>
+        <v>68.333999999999989</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:H36" si="1">AVERAGE(E26:E35)</f>
+        <v>74.997</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>54.445000000000007</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Assignments/Assignment4/HW4_results.xlsx
+++ b/Assignments/Assignment4/HW4_results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student Files\NeuralNetworks\Neural_Networks\Assignments\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmohler\NeuralNets\gitCode\Assignments\Assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F083DBD3-3935-4569-9465-19BFFDFA796F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t xml:space="preserve">Network </t>
   </si>
@@ -105,20 +104,29 @@
     <t>SAME</t>
   </si>
   <si>
-    <t>avg over 10 trials</t>
-  </si>
-  <si>
     <t>Momentum</t>
   </si>
   <si>
     <t>10,15,20,15,10</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>300,200,100,50,25,20,15,10,5,2</t>
+  </si>
+  <si>
+    <t>NETWORK TRIALS</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +163,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +206,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,30 +493,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,8 +545,29 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -538,16 +584,37 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1">
         <v>78.89</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>68.33</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>83.33</v>
+      </c>
+      <c r="O3">
+        <v>72.22</v>
+      </c>
+      <c r="P3">
+        <v>66.67</v>
+      </c>
+      <c r="Q3">
+        <v>83.33</v>
+      </c>
+      <c r="R3">
+        <v>83.33</v>
+      </c>
+      <c r="S3">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,14 +633,35 @@
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>79.44</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>68.33</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>77.78</v>
+      </c>
+      <c r="O4">
+        <v>77.78</v>
+      </c>
+      <c r="P4">
+        <v>72.22</v>
+      </c>
+      <c r="Q4">
+        <v>83.33</v>
+      </c>
+      <c r="R4">
+        <v>77.77</v>
+      </c>
+      <c r="S4">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
@@ -598,8 +686,29 @@
       <c r="J5" s="3">
         <v>74.989999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>77.78</v>
+      </c>
+      <c r="O5">
+        <v>77.78</v>
+      </c>
+      <c r="P5">
+        <v>66.67</v>
+      </c>
+      <c r="Q5">
+        <v>83.33</v>
+      </c>
+      <c r="R5">
+        <v>83.33</v>
+      </c>
+      <c r="S5">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -618,14 +727,35 @@
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1">
-        <v>83.33</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="6">
+        <v>83.33</v>
+      </c>
+      <c r="J6" s="5">
         <v>54.45</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>77.78</v>
+      </c>
+      <c r="O6">
+        <v>77.78</v>
+      </c>
+      <c r="P6">
+        <v>77.78</v>
+      </c>
+      <c r="Q6">
+        <v>83.33</v>
+      </c>
+      <c r="R6">
+        <v>83.33</v>
+      </c>
+      <c r="S6">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -633,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>10000</v>
@@ -642,470 +772,492 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6">
         <v>83.33</v>
       </c>
       <c r="J7" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>77.78</v>
+      </c>
+      <c r="O7">
+        <v>83.33</v>
+      </c>
+      <c r="P7">
+        <v>77.78</v>
+      </c>
+      <c r="Q7">
+        <v>77.77</v>
+      </c>
+      <c r="R7">
+        <v>83.33</v>
+      </c>
+      <c r="S7">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>83.33</v>
-      </c>
-      <c r="D11">
-        <v>72.22</v>
-      </c>
-      <c r="E11">
-        <v>66.67</v>
-      </c>
-      <c r="F11">
-        <v>83.33</v>
-      </c>
-      <c r="G11">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>77.78</v>
-      </c>
-      <c r="D12">
-        <v>77.78</v>
-      </c>
-      <c r="E12">
-        <v>72.22</v>
-      </c>
-      <c r="F12">
-        <v>83.33</v>
-      </c>
-      <c r="G12">
-        <v>77.77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>77.78</v>
-      </c>
-      <c r="D13">
-        <v>77.78</v>
-      </c>
-      <c r="E13">
-        <v>66.67</v>
-      </c>
-      <c r="F13">
-        <v>83.33</v>
-      </c>
-      <c r="G13">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>77.78</v>
-      </c>
-      <c r="D14">
-        <v>77.78</v>
-      </c>
-      <c r="E14">
-        <v>77.78</v>
-      </c>
-      <c r="F14">
-        <v>83.33</v>
-      </c>
-      <c r="G14">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>77.78</v>
-      </c>
-      <c r="D15">
-        <v>83.33</v>
-      </c>
-      <c r="E15">
-        <v>77.78</v>
-      </c>
-      <c r="F15">
-        <v>77.77</v>
-      </c>
-      <c r="G15">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>77.78</v>
-      </c>
-      <c r="D16">
-        <v>77.78</v>
-      </c>
-      <c r="E16">
-        <v>66.67</v>
-      </c>
-      <c r="F16">
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <v>81.67</v>
+      </c>
+      <c r="J8" s="1">
+        <v>66.11</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>77.78</v>
+      </c>
+      <c r="O8">
+        <v>77.78</v>
+      </c>
+      <c r="P8">
+        <v>66.67</v>
+      </c>
+      <c r="Q8">
         <v>88.89</v>
       </c>
-      <c r="G16">
+      <c r="R8">
         <v>88.89</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>77.78</v>
-      </c>
-      <c r="D17">
-        <v>83.33</v>
-      </c>
-      <c r="E17">
-        <v>72.22</v>
-      </c>
-      <c r="F17">
-        <v>83.33</v>
-      </c>
-      <c r="G17">
+      <c r="S8">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>77.78</v>
+      </c>
+      <c r="O9">
+        <v>83.33</v>
+      </c>
+      <c r="P9">
+        <v>72.22</v>
+      </c>
+      <c r="Q9">
+        <v>83.33</v>
+      </c>
+      <c r="R9">
         <v>88.89</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>77.78</v>
-      </c>
-      <c r="D18">
-        <v>83.33</v>
-      </c>
-      <c r="E18">
-        <v>66.67</v>
-      </c>
-      <c r="F18">
-        <v>83.33</v>
-      </c>
-      <c r="G18">
-        <v>77.78</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>77.78</v>
-      </c>
-      <c r="D19">
-        <v>77.78</v>
-      </c>
-      <c r="E19">
-        <v>72.22</v>
-      </c>
-      <c r="F19">
-        <v>83.33</v>
-      </c>
-      <c r="G19">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>83.33</v>
-      </c>
-      <c r="D20">
-        <v>83.33</v>
-      </c>
-      <c r="E20">
-        <v>72.22</v>
-      </c>
-      <c r="F20">
-        <v>83.33</v>
-      </c>
-      <c r="G20">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <f>AVERAGE(C11:C20)</f>
+      <c r="S9">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>77.78</v>
+      </c>
+      <c r="O10">
+        <v>83.33</v>
+      </c>
+      <c r="P10">
+        <v>66.67</v>
+      </c>
+      <c r="Q10">
+        <v>83.33</v>
+      </c>
+      <c r="R10">
+        <v>77.78</v>
+      </c>
+      <c r="S10">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>77.78</v>
+      </c>
+      <c r="O11">
+        <v>77.78</v>
+      </c>
+      <c r="P11">
+        <v>72.22</v>
+      </c>
+      <c r="Q11">
+        <v>83.33</v>
+      </c>
+      <c r="R11">
+        <v>83.33</v>
+      </c>
+      <c r="S11">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>83.33</v>
+      </c>
+      <c r="O12">
+        <v>83.33</v>
+      </c>
+      <c r="P12">
+        <v>72.22</v>
+      </c>
+      <c r="Q12">
+        <v>83.33</v>
+      </c>
+      <c r="R12">
+        <v>83.33</v>
+      </c>
+      <c r="S12">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(N3:N12)</f>
         <v>78.89</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:H21" si="0">AVERAGE(D11:D20)</f>
+      <c r="O13">
+        <f t="shared" ref="O13:S13" si="0">AVERAGE(O3:O12)</f>
         <v>79.444000000000003</v>
       </c>
-      <c r="E21">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>71.111999999999995</v>
       </c>
-      <c r="F21">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>83.330000000000013</v>
       </c>
-      <c r="G21">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>83.331000000000003</v>
       </c>
-      <c r="H21" t="e">
+      <c r="S13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+        <v>81.664999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+    <row r="17" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
+      <c r="O17" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="P17" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s">
+      <c r="Q17" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
+      <c r="R17" t="s">
         <v>22</v>
       </c>
-      <c r="H25" t="s">
+      <c r="S17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>66.67</v>
-      </c>
-      <c r="D26">
-        <v>66.67</v>
-      </c>
-      <c r="E26">
-        <v>83.33</v>
-      </c>
-      <c r="F26">
+    <row r="18" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>66.67</v>
+      </c>
+      <c r="O18">
+        <v>66.67</v>
+      </c>
+      <c r="P18">
+        <v>83.33</v>
+      </c>
+      <c r="Q18">
         <v>50</v>
       </c>
-      <c r="G26">
+      <c r="R18">
         <v>55.56</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>66.67</v>
-      </c>
-      <c r="D27">
-        <v>66.67</v>
-      </c>
-      <c r="E27">
+      <c r="S18">
+        <v>77.78</v>
+      </c>
+    </row>
+    <row r="19" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>66.67</v>
+      </c>
+      <c r="O19">
+        <v>66.67</v>
+      </c>
+      <c r="P19">
         <v>77.77</v>
       </c>
-      <c r="F27">
+      <c r="Q19">
         <v>50</v>
       </c>
-      <c r="G27">
-        <v>72.22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <v>66.67</v>
-      </c>
-      <c r="D28">
+      <c r="R19">
+        <v>72.22</v>
+      </c>
+      <c r="S19">
         <v>61.11</v>
       </c>
-      <c r="E28">
-        <v>83.33</v>
-      </c>
-      <c r="F28">
+    </row>
+    <row r="20" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>66.67</v>
+      </c>
+      <c r="O20">
+        <v>61.11</v>
+      </c>
+      <c r="P20">
+        <v>83.33</v>
+      </c>
+      <c r="Q20">
         <v>50</v>
       </c>
-      <c r="G28">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>66.67</v>
-      </c>
-      <c r="D29">
-        <v>72.22</v>
-      </c>
-      <c r="E29">
-        <v>72.22</v>
-      </c>
-      <c r="F29">
-        <v>66.67</v>
-      </c>
-      <c r="G29">
+      <c r="R20">
+        <v>83.33</v>
+      </c>
+      <c r="S20">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="21" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>66.67</v>
+      </c>
+      <c r="O21">
+        <v>72.22</v>
+      </c>
+      <c r="P21">
+        <v>72.22</v>
+      </c>
+      <c r="Q21">
+        <v>66.67</v>
+      </c>
+      <c r="R21">
         <v>77.77</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>72.22</v>
-      </c>
-      <c r="D30">
-        <v>72.22</v>
-      </c>
-      <c r="E30">
-        <v>66.67</v>
-      </c>
-      <c r="F30">
+      <c r="S21">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="22" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>72.22</v>
+      </c>
+      <c r="O22">
+        <v>72.22</v>
+      </c>
+      <c r="P22">
+        <v>66.67</v>
+      </c>
+      <c r="Q22">
         <v>50</v>
       </c>
-      <c r="G30">
+      <c r="R22">
         <v>55.56</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>72.22</v>
-      </c>
-      <c r="D31">
-        <v>66.67</v>
-      </c>
-      <c r="E31">
-        <v>66.67</v>
-      </c>
-      <c r="F31">
+      <c r="S22">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="23" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>72.22</v>
+      </c>
+      <c r="O23">
+        <v>66.67</v>
+      </c>
+      <c r="P23">
+        <v>66.67</v>
+      </c>
+      <c r="Q23">
         <v>50</v>
       </c>
-      <c r="G31">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>72.22</v>
-      </c>
-      <c r="D32">
-        <v>72.22</v>
-      </c>
-      <c r="E32">
-        <v>72.22</v>
-      </c>
-      <c r="F32">
+      <c r="R23">
+        <v>66.67</v>
+      </c>
+      <c r="S23">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="24" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>72.22</v>
+      </c>
+      <c r="O24">
+        <v>72.22</v>
+      </c>
+      <c r="P24">
+        <v>72.22</v>
+      </c>
+      <c r="Q24">
         <v>50</v>
       </c>
-      <c r="G32">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>72.22</v>
-      </c>
-      <c r="D33">
-        <v>66.67</v>
-      </c>
-      <c r="E33">
+      <c r="R24">
+        <v>83.33</v>
+      </c>
+      <c r="S24">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="25" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>72.22</v>
+      </c>
+      <c r="O25">
+        <v>66.67</v>
+      </c>
+      <c r="P25">
         <v>77.77</v>
       </c>
-      <c r="F33">
+      <c r="Q25">
         <v>61.11</v>
       </c>
-      <c r="G33">
-        <v>77.78</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>66.67</v>
-      </c>
-      <c r="D34">
-        <v>72.22</v>
-      </c>
-      <c r="E34">
-        <v>72.22</v>
-      </c>
-      <c r="F34">
-        <v>66.67</v>
-      </c>
-      <c r="G34">
-        <v>72.22</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35">
+      <c r="R25">
+        <v>77.78</v>
+      </c>
+      <c r="S25">
         <v>61.11</v>
       </c>
-      <c r="D35">
-        <v>66.67</v>
-      </c>
-      <c r="E35">
+    </row>
+    <row r="26" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>66.67</v>
+      </c>
+      <c r="O26">
+        <v>72.22</v>
+      </c>
+      <c r="P26">
+        <v>72.22</v>
+      </c>
+      <c r="Q26">
+        <v>66.67</v>
+      </c>
+      <c r="R26">
+        <v>72.22</v>
+      </c>
+      <c r="S26">
+        <v>61.11</v>
+      </c>
+    </row>
+    <row r="27" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>61.11</v>
+      </c>
+      <c r="O27">
+        <v>66.67</v>
+      </c>
+      <c r="P27">
         <v>77.77</v>
       </c>
-      <c r="F35">
+      <c r="Q27">
         <v>50</v>
       </c>
-      <c r="G35">
+      <c r="R27">
         <v>55.56</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36">
-        <f>AVERAGE(C26:C35)</f>
+      <c r="S27">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="28" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGE(N18:N27)</f>
         <v>68.334000000000003</v>
       </c>
-      <c r="D36">
-        <f>AVERAGE(D26:D35)</f>
+      <c r="O28">
+        <f>AVERAGE(O18:O27)</f>
         <v>68.333999999999989</v>
       </c>
-      <c r="E36">
-        <f t="shared" ref="E36:H36" si="1">AVERAGE(E26:E35)</f>
+      <c r="P28">
+        <f t="shared" ref="P28:S28" si="1">AVERAGE(P18:P27)</f>
         <v>74.997</v>
       </c>
-      <c r="F36">
+      <c r="Q28">
         <f t="shared" si="1"/>
         <v>54.445000000000007</v>
       </c>
-      <c r="G36">
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H36" t="e">
+      <c r="S28">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.111999999999995</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assignments/Assignment4/HW4_results.xlsx
+++ b/Assignments/Assignment4/HW4_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t xml:space="preserve">Network </t>
   </si>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +170,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,10 +200,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,8 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,7 +512,7 @@
   <dimension ref="C1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +560,9 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="M2" t="s">
         <v>25</v>
       </c>
@@ -592,6 +610,10 @@
       <c r="J3" s="4">
         <v>68.33</v>
       </c>
+      <c r="K3">
+        <f>AVERAGE(I3:J3)</f>
+        <v>73.61</v>
+      </c>
       <c r="M3">
         <v>1</v>
       </c>
@@ -639,6 +661,10 @@
       <c r="J4" s="4">
         <v>68.33</v>
       </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K8" si="0">AVERAGE(I4:J4)</f>
+        <v>73.884999999999991</v>
+      </c>
       <c r="M4">
         <v>2</v>
       </c>
@@ -686,6 +712,10 @@
       <c r="J5" s="3">
         <v>74.989999999999995</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>73.05</v>
+      </c>
       <c r="M5">
         <v>3</v>
       </c>
@@ -733,6 +763,10 @@
       <c r="J6" s="5">
         <v>54.45</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>68.89</v>
+      </c>
       <c r="M6">
         <v>4</v>
       </c>
@@ -780,6 +814,10 @@
       <c r="J7" s="1">
         <v>70</v>
       </c>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>76.664999999999992</v>
+      </c>
       <c r="M7">
         <v>5</v>
       </c>
@@ -827,6 +865,10 @@
       <c r="J8" s="1">
         <v>66.11</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>73.89</v>
+      </c>
       <c r="M8">
         <v>6</v>
       </c>
@@ -950,23 +992,23 @@
         <v>78.89</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:S13" si="0">AVERAGE(O3:O12)</f>
+        <f t="shared" ref="O13:S13" si="1">AVERAGE(O3:O12)</f>
         <v>79.444000000000003</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.111999999999995</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.330000000000013</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.331000000000003</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81.664999999999992</v>
       </c>
     </row>
@@ -1238,19 +1280,19 @@
         <v>68.333999999999989</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:S28" si="1">AVERAGE(P18:P27)</f>
+        <f t="shared" ref="P28:S28" si="2">AVERAGE(P18:P27)</f>
         <v>74.997</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.445000000000007</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.111999999999995</v>
       </c>
     </row>
